--- a/results_models/regression_RFR_FEATEXC-0_LLM-0_CV.xlsx
+++ b/results_models/regression_RFR_FEATEXC-0_LLM-0_CV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,85 +476,95 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>min_duration_dd</t>
+          <t>min_duration_dd_test</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>max_duration_dd</t>
+          <t>max_duration_dd_test</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>min_duration_dd_cv</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max_duration_dd_cv</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>RMSE_ht</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>RMSE_ht_norm</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>RMSE_cv</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>RMSE_cv_norm</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MAE_ht</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MSE_ht</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MAPE_ht</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>RMSE_norm</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MAE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>MAPE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>timing_sec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>timing_hr</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
@@ -594,60 +604,66 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2364.96</v>
+      </c>
+      <c r="K2" t="n">
         <v>10</v>
       </c>
-      <c r="J2" t="n">
-        <v>2190</v>
-      </c>
-      <c r="K2" t="n">
-        <v>77.21970100482589</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.03542188119487426</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[117.90959343  95.78457623  85.05846545  65.92028157  67.54109315]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.05408697 0.04393788 0.03901764 0.03023866 0.03098215]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>32.87323508364597</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5962.882223274709</v>
+        <v>3918</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82.1351507970321</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.03501131766826037</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[119.91164501  96.60569995  85.82249035  66.99802158  71.79272076]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.03068363 0.02471998 0.02196072 0.01714381 0.01837071]</t>
+        </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.91</v>
+        <v>35.65730598145394</v>
       </c>
       <c r="R2" t="n">
-        <v>66.5926160832571</v>
+        <v>6746.182996451202</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03054707159782436</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>20.13983287322151</v>
+        <v>66.38816458880773</v>
       </c>
       <c r="U2" t="n">
-        <v>4434.576516812072</v>
+        <v>0.02829893288411044</v>
       </c>
       <c r="V2" t="n">
-        <v>3.14</v>
+        <v>21.11963171798686</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0:01:40</t>
-        </is>
+        <v>4407.388397470624</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.28</v>
       </c>
       <c r="Y2" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0:01:55</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
         <v>188536</v>
       </c>
     </row>
@@ -685,67 +701,73 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>2134</v>
+        <v>2259</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68220939987273</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03979182567754291</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[118.59328775  96.59806164  84.51197916  66.01169991  67.42683694]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.05639243 0.04593346 0.04018639 0.0313893  0.03206221]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>35.21473116592004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>7002.712170044148</v>
+        <v>3918</v>
+      </c>
+      <c r="M3" t="n">
+        <v>87.3798917519695</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03897408195895161</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[119.84256705  97.01649739  83.32043413  66.50496219  70.76877795]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[0.03066596 0.0248251  0.02132048 0.01701765 0.01810869]</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.96</v>
+        <v>37.57533174771713</v>
       </c>
       <c r="R3" t="n">
-        <v>74.9326623174917</v>
+        <v>7635.245482585908</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0356313182679466</v>
+        <v>9.32</v>
       </c>
       <c r="T3" t="n">
-        <v>21.67296674453177</v>
+        <v>72.03411484550709</v>
       </c>
       <c r="U3" t="n">
-        <v>5614.903881987241</v>
+        <v>0.03212940002029754</v>
       </c>
       <c r="V3" t="n">
+        <v>20.72795956678702</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5188.913701575706</v>
+      </c>
+      <c r="X3" t="n">
         <v>3.21</v>
       </c>
-      <c r="W3" t="n">
-        <v>105</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0:01:45</t>
-        </is>
-      </c>
       <c r="Y3" t="n">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0:02:39</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_B.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -755,7 +777,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -776,72 +798,78 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>2364.96</v>
+        <v>2033.96</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304260096994</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04304735743672641</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[135.21200785 114.52596203 100.6262739   84.74143177  79.50488921]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0.05761155 0.04879758 0.04287516 0.03610689 0.03387569]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>45.87159780562044</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10207.14697970135</v>
+        <v>3918</v>
+      </c>
+      <c r="M4" t="n">
+        <v>97.38993900456691</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0482855083911267</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[133.96698896 114.36922588 101.84046409  84.08596931  79.38198024]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[0.03428019 0.02926541 0.02605948 0.02151637 0.02031269]</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>10.4</v>
+        <v>45.54277451688257</v>
       </c>
       <c r="R4" t="n">
-        <v>93.12988132372334</v>
+        <v>9484.800219313263</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03968106883957261</v>
+        <v>10.51</v>
       </c>
       <c r="T4" t="n">
-        <v>34.41749250371631</v>
+        <v>91.92725394755277</v>
       </c>
       <c r="U4" t="n">
-        <v>8673.174795370793</v>
+        <v>0.04557713288689551</v>
       </c>
       <c r="V4" t="n">
-        <v>5.89</v>
+        <v>34.3935121681886</v>
       </c>
       <c r="W4" t="n">
-        <v>129</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0:02:09</t>
-        </is>
+        <v>8450.620018337857</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.14</v>
       </c>
       <c r="Y4" t="n">
+        <v>183</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0:03:03</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_F.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -855,7 +883,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -867,67 +895,73 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>37.96</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>1849</v>
+        <v>2190</v>
       </c>
       <c r="K5" t="n">
-        <v>101.8570347161233</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05624228880429108</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[239.00937172 139.0048921  186.21837432  98.94430014 114.48415637]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0.13197355 0.07675418 0.102824   0.05463397 0.06321459]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>60.85096597014926</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10374.85552116155</v>
+        <v>3918</v>
+      </c>
+      <c r="M5" t="n">
+        <v>98.33456411075559</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04529459424723888</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[135.60206852 115.07178339 100.09042987  82.71394467  81.31806854]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[0.03469858 0.02944519 0.02561168 0.02116529 0.0208081 ]</t>
+        </is>
       </c>
       <c r="Q5" t="n">
-        <v>17.54</v>
+        <v>46.50986723648735</v>
       </c>
       <c r="R5" t="n">
-        <v>91.58823922824587</v>
+        <v>9669.686498852301</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05057217909502047</v>
+        <v>10.92</v>
       </c>
       <c r="T5" t="n">
-        <v>26.87037014925372</v>
+        <v>89.18943096256744</v>
       </c>
       <c r="U5" t="n">
-        <v>8388.405564930395</v>
+        <v>0.0410821883752038</v>
       </c>
       <c r="V5" t="n">
-        <v>3.9</v>
+        <v>34.19677856687804</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>7954.754595426583</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>13560</v>
+        <v>120</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0:02:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_B.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -946,7 +980,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -958,72 +992,78 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.96</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>2364.96</v>
+        <v>2082.04</v>
       </c>
       <c r="K6" t="n">
-        <v>102.570319764532</v>
+        <v>11.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0440594157064141</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[135.65949616 116.81475968 102.77260926  84.77945621  82.96088407]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[0.05827298 0.05017816 0.04414631 0.03641729 0.03563612]</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>49.05017170968716</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10520.67049659835</v>
+        <v>2512</v>
+      </c>
+      <c r="M6" t="n">
+        <v>112.6909622743196</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05483638385351117</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[225.95341332 123.64504637 145.70014172  89.80580676  96.81179224]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[0.09034667 0.04943903 0.05825769 0.03590853 0.03870985]</t>
+        </is>
       </c>
       <c r="Q6" t="n">
-        <v>11.36</v>
+        <v>63.70187104477611</v>
       </c>
       <c r="R6" t="n">
-        <v>94.52540127394589</v>
+        <v>12699.25297831212</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04060369470530321</v>
+        <v>22.36</v>
       </c>
       <c r="T6" t="n">
-        <v>36.11598989169677</v>
+        <v>95.28380202552481</v>
       </c>
       <c r="U6" t="n">
-        <v>8935.051486000491</v>
+        <v>0.04636591113823809</v>
       </c>
       <c r="V6" t="n">
-        <v>6.37</v>
+        <v>20.04538507462687</v>
       </c>
       <c r="W6" t="n">
-        <v>131</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0:02:11</t>
-        </is>
+        <v>9079.002928439406</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.71</v>
       </c>
       <c r="Y6" t="n">
-        <v>188536</v>
+        <v>12</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_11_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_I.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1037,7 +1077,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1049,72 +1089,78 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>2226</v>
+        <v>2259</v>
       </c>
       <c r="K7" t="n">
-        <v>102.9179585714473</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04661139428054679</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[143.95672139 120.25300021  99.81127505  87.41835789  89.08847157]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[0.06519779 0.05446241 0.04520438 0.03959165 0.04034804]</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>54.42927610013921</v>
-      </c>
-      <c r="P7" t="n">
-        <v>10592.10619651414</v>
+        <v>3918</v>
+      </c>
+      <c r="M7" t="n">
+        <v>116.4451174947778</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0519844274530258</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[155.16908632 128.09934708 110.40917729  94.38339115  94.40137468]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>[0.0397055  0.03277875 0.02825209 0.02415133 0.02415593]</t>
+        </is>
       </c>
       <c r="Q7" t="n">
-        <v>15.34</v>
+        <v>59.79432321559188</v>
       </c>
       <c r="R7" t="n">
-        <v>71.49746533924481</v>
+        <v>13559.46538837261</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03238109843262899</v>
+        <v>15.37</v>
       </c>
       <c r="T7" t="n">
-        <v>22.24405461881507</v>
+        <v>93.26732455521334</v>
       </c>
       <c r="U7" t="n">
-        <v>5111.887549936513</v>
+        <v>0.04163719846214881</v>
       </c>
       <c r="V7" t="n">
-        <v>3.46</v>
+        <v>35.78036988744959</v>
       </c>
       <c r="W7" t="n">
-        <v>116</v>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0:01:56</t>
-        </is>
+        <v>8698.7938296875</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.13</v>
       </c>
       <c r="Y7" t="n">
+        <v>127</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0:02:07</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_F.csv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1140,67 +1186,73 @@
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>11.04</v>
+        <v>16.04</v>
       </c>
       <c r="J8" t="n">
         <v>2316.04</v>
       </c>
       <c r="K8" t="n">
-        <v>109.5782925160429</v>
+        <v>11.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0475393893778928</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[219.17612569 110.52769615 150.54923621  77.46102877  92.60413975]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[0.09508726 0.04795128 0.0653142  0.03360565 0.04017533]</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>62.31085850746269</v>
-      </c>
-      <c r="P8" t="n">
-        <v>12007.40219073146</v>
+        <v>2512</v>
+      </c>
+      <c r="M8" t="n">
+        <v>117.204911754039</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05095865728436479</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>[231.57752171 118.12767105 147.36038693  85.91278318  98.74786077]</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[0.09259545 0.04723293 0.05892153 0.03435192 0.03948398]</t>
+        </is>
       </c>
       <c r="Q8" t="n">
-        <v>23.76</v>
+        <v>62.77870805970149</v>
       </c>
       <c r="R8" t="n">
-        <v>22.24290175147951</v>
+        <v>13736.99133927208</v>
       </c>
       <c r="S8" t="n">
-        <v>0.009649848916043173</v>
+        <v>25.14</v>
       </c>
       <c r="T8" t="n">
-        <v>6.208106268656712</v>
+        <v>82.1891078703582</v>
       </c>
       <c r="U8" t="n">
-        <v>494.7466783259703</v>
+        <v>0.03573439472624269</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>17.07911283582089</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0:00:09</t>
-        </is>
+        <v>6755.049452525376</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0:00:11</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
         <v>13560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_B.csv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1210,7 +1262,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1219,7 +1271,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1231,77 +1283,83 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>2406.04</v>
+        <v>2512</v>
       </c>
       <c r="K9" t="n">
-        <v>112.0109958839222</v>
+        <v>11.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04704288709300229</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[202.29025391 136.87682266 117.61321525 143.00559904 101.60502007]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[0.08495878 0.05748615 0.04939573 0.06006014 0.04267254]</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>61.82525150127223</v>
-      </c>
-      <c r="P9" t="n">
-        <v>12546.46319890803</v>
+        <v>2512</v>
+      </c>
+      <c r="M9" t="n">
+        <v>120.5696248404166</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04857760871894303</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>[230.07781336 107.55843406 146.03700935  80.99070924  99.25291941]</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[0.0919958  0.04300686 0.05839238 0.03238385 0.03968593]</t>
+        </is>
       </c>
       <c r="Q9" t="n">
-        <v>16.37</v>
+        <v>62.61232716417911</v>
       </c>
       <c r="R9" t="n">
-        <v>96.61491643436733</v>
+        <v>14537.03443415881</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04057677167723656</v>
+        <v>21.98</v>
       </c>
       <c r="T9" t="n">
-        <v>20.9678717557252</v>
+        <v>59.54828175947873</v>
       </c>
       <c r="U9" t="n">
-        <v>9334.442077619782</v>
+        <v>0.02399205550341609</v>
       </c>
       <c r="V9" t="n">
-        <v>1.96</v>
+        <v>11.66350447761199</v>
       </c>
       <c r="W9" t="n">
-        <v>24</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>3545.997860506267</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.88</v>
       </c>
       <c r="Y9" t="n">
-        <v>26360</v>
+        <v>16</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0:00:16</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_9_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_F.csv</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1310,7 +1368,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1322,77 +1380,83 @@
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>16.04</v>
       </c>
       <c r="J10" t="n">
-        <v>2226</v>
+        <v>2380.04</v>
       </c>
       <c r="K10" t="n">
-        <v>112.5438800386751</v>
+        <v>11.04</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05101717136839307</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[154.2261596  130.02599899 112.98271806  93.79065319  95.02174538]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[0.06991213 0.05894198 0.0512161  0.04251616 0.04307423]</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>59.84505367735542</v>
-      </c>
-      <c r="P10" t="n">
-        <v>12666.1249341597</v>
+        <v>2512</v>
+      </c>
+      <c r="M10" t="n">
+        <v>121.7323762151551</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05149423697764597</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[225.98200627 117.46571272 145.89804687  80.39899868  92.10039802]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[0.0903581  0.04696825 0.05833682 0.03214725 0.03682602]</t>
+        </is>
       </c>
       <c r="Q10" t="n">
-        <v>15.45</v>
+        <v>67.953112039801</v>
       </c>
       <c r="R10" t="n">
-        <v>90.88435134774529</v>
+        <v>14818.77141898805</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04119870867984828</v>
+        <v>20.15</v>
       </c>
       <c r="T10" t="n">
-        <v>35.56883295816525</v>
+        <v>56.74055744215996</v>
       </c>
       <c r="U10" t="n">
-        <v>8259.965319900411</v>
+        <v>0.02400192785201352</v>
       </c>
       <c r="V10" t="n">
-        <v>6.2</v>
+        <v>12.64806805970153</v>
       </c>
       <c r="W10" t="n">
-        <v>131</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0:02:11</t>
-        </is>
+        <v>3219.490858847054</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.95</v>
       </c>
       <c r="Y10" t="n">
-        <v>188536</v>
+        <v>11</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0:00:11</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_11_I.csv</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1401,7 +1465,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1413,77 +1477,83 @@
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>2190</v>
+        <v>3918</v>
       </c>
       <c r="K11" t="n">
-        <v>117.5037967165484</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05409935392106279</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[156.33610657 139.30348528 124.387294   106.15370028  97.72356419]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[0.07197795 0.06413604 0.05726855 0.04887371 0.04499243]</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>62.89535685182769</v>
-      </c>
-      <c r="P11" t="n">
-        <v>13807.14224280393</v>
+        <v>3918</v>
+      </c>
+      <c r="M11" t="n">
+        <v>123.3823817211108</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0316608626433438</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[144.47480519 120.73013658 100.93388655  86.89361826  88.86073617]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[0.03696899 0.03089307 0.0258275  0.02223481 0.02273816]</t>
+        </is>
       </c>
       <c r="Q11" t="n">
-        <v>14.63</v>
+        <v>58.03744139590854</v>
       </c>
       <c r="R11" t="n">
-        <v>112.4279545415314</v>
+        <v>15223.21211917389</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05176241000991318</v>
+        <v>15.15</v>
       </c>
       <c r="T11" t="n">
-        <v>54.75071481560134</v>
+        <v>83.31623037266262</v>
       </c>
       <c r="U11" t="n">
-        <v>12640.04496239266</v>
+        <v>0.02137958182516362</v>
       </c>
       <c r="V11" t="n">
-        <v>10.91</v>
+        <v>24.17050932257383</v>
       </c>
       <c r="W11" t="n">
-        <v>177</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0:02:57</t>
-        </is>
+        <v>6941.594243510589</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.61</v>
       </c>
       <c r="Y11" t="n">
+        <v>123</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0:02:03</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_B.csv</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1492,7 +1562,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1504,67 +1574,73 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>2380.04</v>
+        <v>2190</v>
       </c>
       <c r="K12" t="n">
-        <v>120.6160022226459</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05139068879211513</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[226.69727322 127.90620769 152.62655336  78.62398937  97.55729738]</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>[0.09658859 0.05449682 0.06502938 0.03349921 0.0415661 ]</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>64.74358845771143</v>
-      </c>
-      <c r="P12" t="n">
-        <v>14548.21999217332</v>
+        <v>3918</v>
+      </c>
+      <c r="M12" t="n">
+        <v>125.9257319217597</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0580302912081842</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[154.82013116 139.11635146 124.54091716 105.32760251 100.72095271]</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[0.03961621 0.03559784 0.0318682  0.02695179 0.02577302]</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>20.56</v>
+        <v>66.76761373428866</v>
       </c>
       <c r="R12" t="n">
-        <v>89.91005362698415</v>
+        <v>15857.2899600309</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0383078488764504</v>
+        <v>15.62</v>
       </c>
       <c r="T12" t="n">
-        <v>20.82998208955224</v>
+        <v>122.7707645804112</v>
       </c>
       <c r="U12" t="n">
-        <v>8083.817743207167</v>
+        <v>0.05657638920756276</v>
       </c>
       <c r="V12" t="n">
-        <v>2.7</v>
+        <v>59.49355226162668</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>15072.66063565875</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.79</v>
       </c>
       <c r="Y12" t="n">
-        <v>13560</v>
+        <v>189</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0:03:09</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_F.csv</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1574,7 +1650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1595,72 +1671,78 @@
         <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>2259</v>
+        <v>2364.96</v>
       </c>
       <c r="K13" t="n">
-        <v>120.9820866312665</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05396168003178702</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[155.89908748 138.25582017 124.63068998 105.13226729  98.95802761]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[0.06953572 0.06166629 0.05558907 0.04689218 0.04413828]</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>63.57805267818156</v>
-      </c>
-      <c r="P13" t="n">
-        <v>14636.66528565528</v>
+        <v>3918</v>
+      </c>
+      <c r="M13" t="n">
+        <v>128.8563690967211</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05492692505273793</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[155.26564725 138.39002477 123.90485492 105.12182276  98.80704428]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[0.03973021 0.03541198 0.03170544 0.02689914 0.02528328]</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>15.29</v>
+        <v>66.80408606936209</v>
       </c>
       <c r="R13" t="n">
-        <v>116.5625322707812</v>
+        <v>16603.96385679041</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05199042474165084</v>
+        <v>15.47</v>
       </c>
       <c r="T13" t="n">
-        <v>55.35470426842218</v>
+        <v>123.563703514495</v>
       </c>
       <c r="U13" t="n">
-        <v>13586.8239293769</v>
+        <v>0.05267084840086574</v>
       </c>
       <c r="V13" t="n">
-        <v>11.31</v>
+        <v>59.15997338429958</v>
       </c>
       <c r="W13" t="n">
-        <v>161</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0:02:41</t>
-        </is>
+        <v>15267.98882621803</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11.64</v>
       </c>
       <c r="Y13" t="n">
+        <v>260</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0:04:20</t>
+        </is>
+      </c>
+      <c r="AA13" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_B.csv</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1686,67 +1768,73 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>37.96</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>2316.04</v>
+        <v>2111.04</v>
       </c>
       <c r="K14" t="n">
-        <v>129.7883117859114</v>
+        <v>11.04</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0569726751413082</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[227.59487805 116.47905981 148.67961897  88.37943861  98.42451097]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>[0.09990645 0.05113036 0.06526532 0.03879558 0.04320503]</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>72.00693412935328</v>
-      </c>
-      <c r="P14" t="n">
-        <v>16845.00587623694</v>
+        <v>2512</v>
+      </c>
+      <c r="M14" t="n">
+        <v>130.5020606159071</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0628005527400373</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[248.17000621 135.22831476 173.51125841 100.67499185 105.74881883]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[0.0992299  0.05407056 0.06937786 0.04025454 0.04228329]</t>
+        </is>
       </c>
       <c r="Q14" t="n">
-        <v>19.26</v>
+        <v>75.16129538971809</v>
       </c>
       <c r="R14" t="n">
-        <v>92.97651674118543</v>
+        <v>17030.7878249979</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04081354330892042</v>
+        <v>20.22</v>
       </c>
       <c r="T14" t="n">
-        <v>25.32682507462686</v>
+        <v>73.84017569165239</v>
       </c>
       <c r="U14" t="n">
-        <v>8644.632665323936</v>
+        <v>0.03553356802162249</v>
       </c>
       <c r="V14" t="n">
-        <v>3.52</v>
+        <v>26.66699223880605</v>
       </c>
       <c r="W14" t="n">
+        <v>5452.371546174093</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y14" t="n">
         <v>10</v>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0:00:10</t>
         </is>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>13560</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_F.csv</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1756,7 +1844,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1765,7 +1853,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1777,67 +1865,73 @@
         <v>5</v>
       </c>
       <c r="I15" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2147</v>
+      </c>
+      <c r="K15" t="n">
         <v>11.04</v>
       </c>
-      <c r="J15" t="n">
-        <v>2002</v>
-      </c>
-      <c r="K15" t="n">
-        <v>129.9556153890879</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.06527284093557274</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[258.66964114 172.00481558 201.76806434 116.48032038 131.05834078]</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>[0.12992207 0.0863929  0.1013421  0.0585046  0.06582671]</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>81.36153910447764</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16888.46197115654</v>
+        <v>2512</v>
+      </c>
+      <c r="M15" t="n">
+        <v>130.6684107271373</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06131903495473272</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[246.38070983 141.01844274 181.06501369  94.26662181 114.255611  ]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[0.09851445 0.05638572 0.0723982  0.03769217 0.0456847 ]</t>
+        </is>
       </c>
       <c r="Q15" t="n">
-        <v>36.98</v>
+        <v>77.45261970149258</v>
       </c>
       <c r="R15" t="n">
-        <v>105.3896267319192</v>
+        <v>17074.23356195584</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05293407538670753</v>
+        <v>34.55</v>
       </c>
       <c r="T15" t="n">
-        <v>32.29221492537316</v>
+        <v>104.3913132402358</v>
       </c>
       <c r="U15" t="n">
-        <v>11106.97342269326</v>
+        <v>0.04898792715031524</v>
       </c>
       <c r="V15" t="n">
-        <v>7.5</v>
+        <v>28.11651104477614</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>10897.54628002102</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.41</v>
       </c>
       <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0:00:11</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
         <v>13560</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_B.csv</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1847,7 +1941,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1868,77 +1962,83 @@
         <v>5</v>
       </c>
       <c r="I16" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2229</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3925</v>
+      </c>
+      <c r="M16" t="n">
+        <v>132.530290809078</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06013280223283452</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[216.90876408 150.90239891 130.4268949  149.34545521 102.76985841]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[0.0555322  0.03863349 0.03339142 0.03823488 0.02631077]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>71.89701448685329</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17564.27798193878</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>114.102417195564</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.05177154630554276</v>
+      </c>
+      <c r="V16" t="n">
+        <v>32.7890372519084</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13019.36160987054</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y16" t="n">
         <v>22</v>
       </c>
-      <c r="J16" t="n">
-        <v>2282</v>
-      </c>
-      <c r="K16" t="n">
-        <v>131.0269090738225</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.05797650843974449</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>[219.78022491 153.5911883  137.80356268 149.40670385  97.83615165]</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>[0.09724789 0.0679607  0.06097503 0.06610916 0.04329033]</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>72.75178320610691</v>
-      </c>
-      <c r="P16" t="n">
-        <v>17168.05090143976</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="R16" t="n">
-        <v>101.5934352298923</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.04495284744685499</v>
-      </c>
-      <c r="T16" t="n">
-        <v>29.96647633587787</v>
-      </c>
-      <c r="U16" t="n">
-        <v>10321.22608181032</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="W16" t="n">
-        <v>23</v>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0:00:23</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_I.csv</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1947,7 +2047,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1959,72 +2059,78 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>2450.04</v>
+        <v>3918</v>
       </c>
       <c r="K17" t="n">
-        <v>135.5473155600074</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05589487825355765</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[205.51807222 129.21947515 125.68631468 149.73077235 105.40731922]</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>[0.08474832 0.0532855  0.05182855 0.06174363 0.04346622]</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>73.20813648854968</v>
-      </c>
-      <c r="P17" t="n">
-        <v>18373.07475552423</v>
+        <v>3918</v>
+      </c>
+      <c r="M17" t="n">
+        <v>136.2862542100056</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03493623537810961</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[166.76171893 146.7585233  131.29428579 110.97792993 106.40105951]</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[0.04267188 0.03755336 0.03359629 0.02839763 0.02722647]</t>
+        </is>
       </c>
       <c r="Q17" t="n">
-        <v>16.49</v>
+        <v>72.9021993062929</v>
       </c>
       <c r="R17" t="n">
-        <v>104.1007733483285</v>
+        <v>18573.94308659427</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04292744587649214</v>
+        <v>18.69</v>
       </c>
       <c r="T17" t="n">
-        <v>27.53359938931295</v>
+        <v>119.0533784536098</v>
       </c>
       <c r="U17" t="n">
-        <v>10836.97101172006</v>
+        <v>0.03051868199272233</v>
       </c>
       <c r="V17" t="n">
-        <v>2.45</v>
+        <v>58.85563057266229</v>
       </c>
       <c r="W17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0:00:23</t>
-        </is>
+        <v>14173.70692121844</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12.24</v>
       </c>
       <c r="Y17" t="n">
-        <v>26360</v>
+        <v>264</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0:04:24</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_7_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_I.csv</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2038,7 +2144,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2050,77 +2156,83 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>3918</v>
+        <v>2512</v>
       </c>
       <c r="K18" t="n">
-        <v>138.1458205470327</v>
+        <v>11.04</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03534949348695823</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[168.09735047 145.62740849 130.95160843 109.89535906 105.79859449]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>[0.04301365 0.03726392 0.0335086  0.02812061 0.02707231]</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>74.69203849366461</v>
-      </c>
-      <c r="P18" t="n">
-        <v>19084.26773461297</v>
+        <v>2512</v>
+      </c>
+      <c r="M18" t="n">
+        <v>142.5853915613573</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.05758699174529777</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[250.05231951 156.09907856 168.34243025 110.11714236 130.91898515]</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[0.09998253 0.06241566 0.06731112 0.04402995 0.05234749]</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>19.23</v>
+        <v>87.24803502487566</v>
       </c>
       <c r="R18" t="n">
-        <v>118.0037688467383</v>
+        <v>20330.59388670558</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03019543726886855</v>
+        <v>29.77</v>
       </c>
       <c r="T18" t="n">
-        <v>58.69834797196859</v>
+        <v>108.012820658527</v>
       </c>
       <c r="U18" t="n">
-        <v>13924.88946203444</v>
+        <v>0.04362391787501089</v>
       </c>
       <c r="V18" t="n">
-        <v>12.33</v>
+        <v>21.63512477611943</v>
       </c>
       <c r="W18" t="n">
-        <v>167</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0:02:47</t>
-        </is>
+        <v>11666.76942661111</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>188536</v>
+        <v>12</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_F.csv</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2129,7 +2241,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2141,67 +2253,73 @@
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>37.04</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>2512</v>
+        <v>2274.04</v>
       </c>
       <c r="K19" t="n">
-        <v>140.7335696514105</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05686296734145624</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>[243.87840498 163.41792269 180.76063395 103.03817065 125.65538761]</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>[0.09853832 0.06602851 0.07303578 0.04163226 0.05077067]</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>83.29689552238806</v>
-      </c>
-      <c r="P19" t="n">
-        <v>19805.93762682842</v>
+        <v>3925</v>
+      </c>
+      <c r="M19" t="n">
+        <v>143.475354159195</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06425113484720157</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[220.13616194 150.38418141 137.84572023 146.74455328 103.30377606]</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[0.05635846 0.03850081 0.03529076 0.03756901 0.02644746]</t>
+        </is>
       </c>
       <c r="Q19" t="n">
-        <v>24.82</v>
+        <v>73.31052105173877</v>
       </c>
       <c r="R19" t="n">
-        <v>65.01395795643113</v>
+        <v>20585.17725110643</v>
       </c>
       <c r="S19" t="n">
-        <v>0.02626869038547335</v>
+        <v>13.69</v>
       </c>
       <c r="T19" t="n">
-        <v>15.09969432835823</v>
+        <v>114.6873812945776</v>
       </c>
       <c r="U19" t="n">
-        <v>4226.814729160595</v>
+        <v>0.05135930448831081</v>
       </c>
       <c r="V19" t="n">
-        <v>1.89</v>
+        <v>30.31111653944022</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0:00:09</t>
-        </is>
+        <v>13153.19542820782</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.15</v>
       </c>
       <c r="Y19" t="n">
-        <v>13560</v>
+        <v>22</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_B.csv</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2220,7 +2338,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2232,77 +2350,83 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>2082.04</v>
+        <v>2280.04</v>
       </c>
       <c r="K20" t="n">
-        <v>144.2276931092997</v>
+        <v>19</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07139843424352968</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[241.93933361 134.5563344  183.25207528  98.99990955 115.68751633]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>[0.11976958 0.06661073 0.09071705 0.04900889 0.05726991]</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>76.09472119402984</v>
-      </c>
-      <c r="P20" t="n">
-        <v>20801.62745963033</v>
+        <v>3925</v>
+      </c>
+      <c r="M20" t="n">
+        <v>146.5641729570308</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06490769559309435</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[249.7754379  189.1607139  158.19483337 164.21468019 110.33771318]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[0.0639466  0.04842824 0.04050047 0.04204165 0.02824826]</t>
+        </is>
       </c>
       <c r="Q20" t="n">
-        <v>16.83</v>
+        <v>78.49628071246822</v>
       </c>
       <c r="R20" t="n">
-        <v>114.3291018164071</v>
+        <v>21481.05679457843</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05659744451417156</v>
+        <v>16.57</v>
       </c>
       <c r="T20" t="n">
-        <v>36.57103283582094</v>
+        <v>131.114947212248</v>
       </c>
       <c r="U20" t="n">
-        <v>13071.14352214639</v>
+        <v>0.05806582133719863</v>
       </c>
       <c r="V20" t="n">
-        <v>5.45</v>
+        <v>43.27732427480918</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0:00:08</t>
-        </is>
+        <v>17191.12938247057</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.21</v>
       </c>
       <c r="Y20" t="n">
-        <v>13560</v>
+        <v>21</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_F.csv</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2311,7 +2435,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2323,67 +2447,73 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>2450.04</v>
+        <v>2134</v>
       </c>
       <c r="K21" t="n">
-        <v>146.9681958248411</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06060444191635647</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[214.14681357 150.98001151 130.83882251 153.63846534 106.67482624]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>[0.08830651 0.06225877 0.05395326 0.06335502 0.04398889]</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>79.2550204580153</v>
-      </c>
-      <c r="P21" t="n">
-        <v>21599.65058400884</v>
+        <v>3918</v>
+      </c>
+      <c r="M21" t="n">
+        <v>147.0822095777553</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.06947671685297843</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>[186.41340839 167.77249384 154.22625724 132.73110122 131.88646362]</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[0.04770046 0.04293053 0.03946424 0.03396395 0.03374782]</t>
+        </is>
       </c>
       <c r="Q21" t="n">
-        <v>17.67</v>
+        <v>92.87511054475682</v>
       </c>
       <c r="R21" t="n">
-        <v>111.8256553754122</v>
+        <v>21633.17637427475</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04611291169441007</v>
+        <v>24.08</v>
       </c>
       <c r="T21" t="n">
-        <v>33.61532763358779</v>
+        <v>148.4341608720446</v>
       </c>
       <c r="U21" t="n">
-        <v>12504.97720014046</v>
+        <v>0.070115333430347</v>
       </c>
       <c r="V21" t="n">
-        <v>4.21</v>
+        <v>91.25786639457709</v>
       </c>
       <c r="W21" t="n">
-        <v>22</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0:00:22</t>
-        </is>
+        <v>22032.70011378801</v>
+      </c>
+      <c r="X21" t="n">
+        <v>21.93</v>
       </c>
       <c r="Y21" t="n">
-        <v>26360</v>
+        <v>167</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0:02:47</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_I.csv</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2393,7 +2523,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2402,7 +2532,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2417,74 +2547,80 @@
         <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>2259</v>
+        <v>2004.96</v>
       </c>
       <c r="K22" t="n">
-        <v>149.711938553829</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06656822523513961</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[185.37257451 167.26309605 153.43408023 132.78864612 131.53274403]</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>[0.08242444 0.07437221 0.06822325 0.05904342 0.05848499]</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>94.52495522422485</v>
-      </c>
-      <c r="P22" t="n">
-        <v>22413.66454554546</v>
+        <v>3918</v>
+      </c>
+      <c r="M22" t="n">
+        <v>148.2457795236049</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0743101513431873</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[188.55248611 169.52037771 154.46466191 133.52716003 132.50629323]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[0.04824782 0.04337778 0.03952525 0.03416765 0.03390642]</t>
+        </is>
       </c>
       <c r="Q22" t="n">
-        <v>25.42</v>
+        <v>96.02073781271331</v>
       </c>
       <c r="R22" t="n">
-        <v>150.2551713948893</v>
+        <v>21976.81114656128</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06680976940635361</v>
+        <v>26.32</v>
       </c>
       <c r="T22" t="n">
-        <v>92.86769430782662</v>
+        <v>151.1949436351402</v>
       </c>
       <c r="U22" t="n">
-        <v>22576.61653090754</v>
+        <v>0.07578845873357873</v>
       </c>
       <c r="V22" t="n">
-        <v>22.9</v>
+        <v>93.93613185120017</v>
       </c>
       <c r="W22" t="n">
-        <v>172</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0:02:52</t>
-        </is>
+        <v>22859.91098083323</v>
+      </c>
+      <c r="X22" t="n">
+        <v>22.94</v>
       </c>
       <c r="Y22" t="n">
+        <v>160</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>0:02:40</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_B.csv</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2493,7 +2629,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2505,72 +2641,78 @@
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>20.96</v>
       </c>
       <c r="J23" t="n">
-        <v>2226</v>
+        <v>3925</v>
       </c>
       <c r="K23" t="n">
-        <v>150.1507073153228</v>
+        <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06834351721225437</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>[185.79019379 167.16464908 154.13950274 132.84785593 130.94483488]</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>[0.0845654  0.07608769 0.07015908 0.06046785 0.05960165]</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>94.05054092603808</v>
-      </c>
-      <c r="P23" t="n">
-        <v>22545.23490729175</v>
+        <v>3925</v>
+      </c>
+      <c r="M23" t="n">
+        <v>149.625966452563</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03832593069040353</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[204.88066319 138.02484505 120.02827898 147.28106313  97.72091769]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[0.05245281 0.03533662 0.03072921 0.03770637 0.02501816]</t>
+        </is>
       </c>
       <c r="Q23" t="n">
-        <v>24.46</v>
+        <v>65.16499419847327</v>
       </c>
       <c r="R23" t="n">
-        <v>149.2853182157764</v>
+        <v>22387.92983686351</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06794962139998928</v>
+        <v>17.31</v>
       </c>
       <c r="T23" t="n">
-        <v>91.0622855574769</v>
+        <v>108.2626124905744</v>
       </c>
       <c r="U23" t="n">
-        <v>22286.10623478563</v>
+        <v>0.02773091784166514</v>
       </c>
       <c r="V23" t="n">
-        <v>22.09</v>
+        <v>22.49420213740457</v>
       </c>
       <c r="W23" t="n">
-        <v>172</v>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>0:02:52</t>
-        </is>
+        <v>11720.79326328427</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>188536</v>
+        <v>20</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0:00:20</t>
+        </is>
+      </c>
+      <c r="AA23" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_11_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_B.csv</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2584,7 +2726,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2596,77 +2738,83 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>2512</v>
+        <v>2364.96</v>
       </c>
       <c r="K24" t="n">
-        <v>151.3099412075936</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06088931235718054</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>[222.14511859 114.02374026 156.41299468  81.80351192  99.48092396]</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>[0.08939441 0.0458848  0.06294286 0.03291892 0.04003256]</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>70.72858109452733</v>
-      </c>
-      <c r="P24" t="n">
-        <v>22894.69830824544</v>
+        <v>3918</v>
+      </c>
+      <c r="M24" t="n">
+        <v>150.1531403806995</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.06397771601590975</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>[184.97055159 166.90675855 154.34624607 132.08764969 131.74921209]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[0.04733126 0.042709   0.03949495 0.0337993  0.0337127 ]</t>
+        </is>
       </c>
       <c r="Q24" t="n">
-        <v>20.19</v>
+        <v>95.10572707469758</v>
       </c>
       <c r="R24" t="n">
-        <v>76.94329506114634</v>
+        <v>22545.96556618607</v>
       </c>
       <c r="S24" t="n">
-        <v>0.03096309660408304</v>
+        <v>24.49</v>
       </c>
       <c r="T24" t="n">
-        <v>16.50383880597015</v>
+        <v>150.4434920722454</v>
       </c>
       <c r="U24" t="n">
-        <v>5920.270654866627</v>
+        <v>0.06410142996567704</v>
       </c>
       <c r="V24" t="n">
-        <v>1.86</v>
+        <v>92.89701473894975</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>0:00:13</t>
-        </is>
+        <v>22633.24430689176</v>
+      </c>
+      <c r="X24" t="n">
+        <v>22.05</v>
       </c>
       <c r="Y24" t="n">
-        <v>13560</v>
+        <v>163</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>0:02:43</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_I.csv</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2675,7 +2823,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2687,77 +2835,83 @@
         <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J25" t="n">
-        <v>2282</v>
+        <v>2316.04</v>
       </c>
       <c r="K25" t="n">
-        <v>154.9711170061593</v>
+        <v>11.04</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06857129071068994</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>[248.2631026  185.50131713 156.31323925 159.46657923 118.90668809]</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>[0.10985093 0.08208023 0.06916515 0.07056043 0.05261358]</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>85.94932712468201</v>
-      </c>
-      <c r="P25" t="n">
-        <v>24016.04710613671</v>
+        <v>2512</v>
+      </c>
+      <c r="M25" t="n">
+        <v>154.4822336060803</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06793294471780635</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[246.94993368 155.08261911 169.94154857 103.1850476  122.10980306]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[0.09874206 0.06200924 0.06795053 0.04125818 0.04882517]</t>
+        </is>
       </c>
       <c r="Q25" t="n">
-        <v>18.7</v>
+        <v>89.82717014925375</v>
       </c>
       <c r="R25" t="n">
-        <v>140.8795016928907</v>
+        <v>23864.76049992358</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06233606269596932</v>
+        <v>32.39</v>
       </c>
       <c r="T25" t="n">
-        <v>49.78159460559802</v>
+        <v>66.67744362746289</v>
       </c>
       <c r="U25" t="n">
-        <v>19847.03399723718</v>
+        <v>0.02932113930602051</v>
       </c>
       <c r="V25" t="n">
-        <v>5.68</v>
+        <v>16.4425385074627</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>0:00:21</t>
-        </is>
+        <v>4445.881488693492</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>26360</v>
+        <v>15</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>0:00:15</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_F.csv</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2766,7 +2920,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2778,72 +2932,78 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J26" t="n">
-        <v>2394.04</v>
+        <v>3925</v>
       </c>
       <c r="K26" t="n">
-        <v>158.7157351602039</v>
+        <v>19</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06705240940592636</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>[305.07258746 195.05450822 238.3706131  140.53685871 146.50672151]</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>[0.12888358 0.0824044  0.10070409 0.05937241 0.06189448]</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>91.40298507462686</v>
-      </c>
-      <c r="P26" t="n">
-        <v>25190.684587444</v>
+        <v>3925</v>
+      </c>
+      <c r="M26" t="n">
+        <v>160.5982837482112</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04117904711492595</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>[207.68077081 140.60543618 127.15382571 143.49611159 100.3844063 ]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[0.05316968 0.0359973  0.03255346 0.03673736 0.02570005]</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>33.07</v>
+        <v>71.69124152671756</v>
       </c>
       <c r="R26" t="n">
-        <v>134.051134090534</v>
+        <v>25791.80874287097</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0566323907033823</v>
+        <v>16.88</v>
       </c>
       <c r="T26" t="n">
-        <v>59.6904608955224</v>
+        <v>118.2914615112846</v>
       </c>
       <c r="U26" t="n">
-        <v>17969.70655095834</v>
+        <v>0.03033114397725245</v>
       </c>
       <c r="V26" t="n">
-        <v>13.48</v>
+        <v>27.25332702290075</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>0:00:09</t>
-        </is>
+        <v>13992.86986647572</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.62</v>
       </c>
       <c r="Y26" t="n">
-        <v>13560</v>
+        <v>22</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_5_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_7_I.csv</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2857,7 +3017,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2869,72 +3029,78 @@
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>3918</v>
+        <v>2316.04</v>
       </c>
       <c r="K27" t="n">
-        <v>162.8853128442226</v>
+        <v>11.04</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04176546483185195</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>[188.95704668 168.61243448 154.75835487 133.41054963 132.20994733]</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>[0.04845052 0.04323396 0.03968163 0.03420783 0.03389999]</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>97.69217327365621</v>
-      </c>
-      <c r="P27" t="n">
-        <v>26531.62514036027</v>
+        <v>2512</v>
+      </c>
+      <c r="M27" t="n">
+        <v>160.7707160756106</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.07032716666183034</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>[261.76323737 167.48152519 196.58156969 114.76995    136.36951094]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[0.1046651  0.06696689 0.07860244 0.04589036 0.05452687]</t>
+        </is>
       </c>
       <c r="Q27" t="n">
-        <v>25.76</v>
+        <v>93.20796895522389</v>
       </c>
       <c r="R27" t="n">
-        <v>160.9131823668761</v>
+        <v>25847.2231474646</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04125979035048104</v>
+        <v>33.55</v>
       </c>
       <c r="T27" t="n">
-        <v>93.50828451516345</v>
+        <v>109.2529712173145</v>
       </c>
       <c r="U27" t="n">
-        <v>25893.05225943552</v>
+        <v>0.04779136463811415</v>
       </c>
       <c r="V27" t="n">
-        <v>22.22</v>
+        <v>34.3350841791045</v>
       </c>
       <c r="W27" t="n">
-        <v>184</v>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>0:03:04</t>
-        </is>
+        <v>11936.21171981135</v>
+      </c>
+      <c r="X27" t="n">
+        <v>6.28</v>
       </c>
       <c r="Y27" t="n">
-        <v>188536</v>
+        <v>15</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>0:00:15</t>
+        </is>
+      </c>
+      <c r="AA27" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_I.csv</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2948,7 +3114,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2960,77 +3126,83 @@
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>41</v>
+        <v>37.96</v>
       </c>
       <c r="J28" t="n">
-        <v>2271</v>
+        <v>2082.04</v>
       </c>
       <c r="K28" t="n">
-        <v>165.5840095472687</v>
+        <v>11.04</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07425291907949272</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>[247.17806325 205.79887713 179.67966268 188.10126784 147.57451163]</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>[0.11084218 0.09228649 0.08057384 0.08435034 0.06617691]</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>98.91014106870233</v>
-      </c>
-      <c r="P28" t="n">
-        <v>27418.06421774999</v>
+        <v>2512</v>
+      </c>
+      <c r="M28" t="n">
+        <v>168.3111544006332</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.08234078627090584</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[310.21797273 207.7606296  233.74061339 145.53738508 164.93114773]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[0.12403956 0.08307235 0.09346036 0.05819261 0.06594714]</t>
+        </is>
       </c>
       <c r="Q28" t="n">
-        <v>24.67</v>
+        <v>109.4809731343284</v>
       </c>
       <c r="R28" t="n">
-        <v>126.420027981458</v>
+        <v>28328.64469567379</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05669059550738026</v>
+        <v>34.11</v>
       </c>
       <c r="T28" t="n">
-        <v>38.08493190839692</v>
+        <v>171.5292679472275</v>
       </c>
       <c r="U28" t="n">
-        <v>15982.02347483262</v>
+        <v>0.08391514419554397</v>
       </c>
       <c r="V28" t="n">
-        <v>4.64</v>
+        <v>88.69318805970151</v>
       </c>
       <c r="W28" t="n">
-        <v>24</v>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>29422.28976251177</v>
+      </c>
+      <c r="X28" t="n">
+        <v>19.66</v>
       </c>
       <c r="Y28" t="n">
-        <v>26360</v>
+        <v>12</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_5_F.csv</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3039,7 +3211,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -3051,77 +3223,83 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J29" t="n">
-        <v>2450.04</v>
+        <v>2271</v>
       </c>
       <c r="K29" t="n">
-        <v>170.9207367270628</v>
+        <v>19</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07048161544843086</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>[243.65651644 178.15417985 161.29319591 186.79682694 138.55179667]</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>[0.10047526 0.07346443 0.06651156 0.07702835 0.05713382]</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>103.9364085496183</v>
-      </c>
-      <c r="P29" t="n">
-        <v>29213.89824332191</v>
+        <v>3925</v>
+      </c>
+      <c r="M29" t="n">
+        <v>181.5937800287674</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08074423300523226</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>[289.61115553 238.00551329 222.5181934  210.43209259 146.48814226]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[0.0741452  0.06093331 0.0569683  0.05387406 0.03750336]</t>
+        </is>
       </c>
       <c r="Q29" t="n">
-        <v>24.46</v>
+        <v>109.631545648855</v>
       </c>
       <c r="R29" t="n">
-        <v>111.0554229486521</v>
+        <v>32976.30094513635</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04579529531416063</v>
+        <v>24.41</v>
       </c>
       <c r="T29" t="n">
-        <v>31.17087572519081</v>
+        <v>188.0274502308996</v>
       </c>
       <c r="U29" t="n">
-        <v>12333.306966304</v>
+        <v>0.08360491339746538</v>
       </c>
       <c r="V29" t="n">
-        <v>3.44</v>
+        <v>92.21281893129773</v>
       </c>
       <c r="W29" t="n">
-        <v>24</v>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>35354.32204033344</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15.38</v>
       </c>
       <c r="Y29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>0:00:26</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_9_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_F.csv</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3130,7 +3308,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -3142,72 +3320,78 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>11.04</v>
+        <v>41</v>
       </c>
       <c r="J30" t="n">
-        <v>2512</v>
+        <v>3925</v>
       </c>
       <c r="K30" t="n">
-        <v>174.3148856021174</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06969918975198222</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>[250.71928947 158.76857257 175.03133196 103.50978612 123.34069369]</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>[0.10024922 0.06348305 0.06998566 0.04138802 0.04931734]</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>102.4180274626866</v>
-      </c>
-      <c r="P30" t="n">
-        <v>30385.67934247929</v>
+        <v>3925</v>
+      </c>
+      <c r="M30" t="n">
+        <v>182.2514925370494</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04692365925258738</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[250.17364036 185.00220085 153.71331197 155.28349012 112.82949799]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[0.06404855 0.04736359 0.03935313 0.03975512 0.0288862 ]</t>
+        </is>
       </c>
       <c r="Q30" t="n">
-        <v>37.46</v>
+        <v>85.5490224063977</v>
       </c>
       <c r="R30" t="n">
-        <v>132.4121142689645</v>
+        <v>33215.60653198216</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0529445150138205</v>
+        <v>18.1</v>
       </c>
       <c r="T30" t="n">
-        <v>30.60527522388062</v>
+        <v>144.7157025266876</v>
       </c>
       <c r="U30" t="n">
-        <v>17532.96800517732</v>
+        <v>0.03725944967216468</v>
       </c>
       <c r="V30" t="n">
-        <v>3.68</v>
+        <v>47.33503904034894</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>20942.63455779274</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.89</v>
       </c>
       <c r="Y30" t="n">
-        <v>13560</v>
+        <v>21</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0:00:21</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_F.csv</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3221,7 +3405,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3233,77 +3417,83 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>22</v>
+        <v>11.04</v>
       </c>
       <c r="J31" t="n">
-        <v>3925</v>
+        <v>2316.04</v>
       </c>
       <c r="K31" t="n">
-        <v>174.7252512301164</v>
+        <v>11.04</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04476691038434957</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[250.63818026 188.50320991 157.71434951 163.06448877 112.75395353]</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>[0.0642168  0.048297   0.04040849 0.04177927 0.02888905]</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>86.61044609233012</v>
-      </c>
-      <c r="P31" t="n">
-        <v>30528.91341742729</v>
+        <v>2512</v>
+      </c>
+      <c r="M31" t="n">
+        <v>182.5750287038086</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.07920825540295384</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[310.36459882 198.07874125 231.24485701 141.46844654 142.85491129]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[0.12409819 0.07920108 0.09246244 0.05656566 0.05712003]</t>
+        </is>
       </c>
       <c r="Q31" t="n">
-        <v>17.63</v>
+        <v>102.7334292537313</v>
       </c>
       <c r="R31" t="n">
-        <v>159.9000618806652</v>
+        <v>33333.64110619654</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04096850163481046</v>
+        <v>40.47</v>
       </c>
       <c r="T31" t="n">
-        <v>57.27808783715013</v>
+        <v>171.5891250532843</v>
       </c>
       <c r="U31" t="n">
-        <v>25568.02978944056</v>
+        <v>0.07444213668255283</v>
       </c>
       <c r="V31" t="n">
-        <v>7.18</v>
+        <v>75.24097432835822</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>0:00:23</t>
-        </is>
+        <v>29442.82783655163</v>
+      </c>
+      <c r="X31" t="n">
+        <v>30.51</v>
       </c>
       <c r="Y31" t="n">
-        <v>26360</v>
+        <v>12</v>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA31" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_B.csv</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3312,7 +3502,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3324,77 +3514,83 @@
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>20.96</v>
+        <v>11.04</v>
       </c>
       <c r="J32" t="n">
-        <v>2406.04</v>
+        <v>2394.04</v>
       </c>
       <c r="K32" t="n">
-        <v>178.5478067554502</v>
+        <v>11.04</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07486030101944176</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>[273.32789322 209.36278621 181.82153017 195.10293193 137.20918919]</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>[0.11459905 0.08778019 0.07623289 0.08180142 0.05752813]</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>105.732693827699</v>
-      </c>
-      <c r="P32" t="n">
-        <v>31879.31929718157</v>
+        <v>2512</v>
+      </c>
+      <c r="M32" t="n">
+        <v>190.2714444509965</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.07984533967729607</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[307.44708139 199.4186605  234.26874247 140.04314949 148.68709247]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[0.12293163 0.07973685 0.09367153 0.05599576 0.05945201]</t>
+        </is>
       </c>
       <c r="Q32" t="n">
-        <v>26.64</v>
+        <v>102.0550591044776</v>
       </c>
       <c r="R32" t="n">
-        <v>145.2251362603428</v>
+        <v>36203.22257346866</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06088900005884196</v>
+        <v>29.37</v>
       </c>
       <c r="T32" t="n">
-        <v>52.87902982188294</v>
+        <v>174.7500414434736</v>
       </c>
       <c r="U32" t="n">
-        <v>21090.34020183512</v>
+        <v>0.07333195192760118</v>
       </c>
       <c r="V32" t="n">
-        <v>6.22</v>
+        <v>76.94730985074628</v>
       </c>
       <c r="W32" t="n">
-        <v>24</v>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>30537.57698449576</v>
+      </c>
+      <c r="X32" t="n">
+        <v>19.78</v>
       </c>
       <c r="Y32" t="n">
-        <v>26360</v>
+        <v>12</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA32" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_11_I.csv</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3403,7 +3599,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3415,67 +3611,73 @@
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>37.96</v>
+        <v>25.04</v>
       </c>
       <c r="J33" t="n">
-        <v>2308.04</v>
+        <v>3925</v>
       </c>
       <c r="K33" t="n">
-        <v>182.970412931263</v>
+        <v>19</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08060086557798098</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[302.31731481 193.6613245  240.56974649 140.83020374 150.14431632]</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>[0.13317474 0.08531035 0.10597413 0.06203755 0.06614054]</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>101.9732871641791</v>
-      </c>
-      <c r="P33" t="n">
-        <v>33478.17200823691</v>
+        <v>3925</v>
+      </c>
+      <c r="M33" t="n">
+        <v>191.4152801526748</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04908134446319315</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[242.57960113 194.94839035 165.09085639 178.28735856 150.88250316]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[0.06210435 0.04990998 0.04226596 0.04564449 0.03862839]</t>
+        </is>
       </c>
       <c r="Q33" t="n">
-        <v>27.44</v>
+        <v>100.7811151145038</v>
       </c>
       <c r="R33" t="n">
-        <v>155.6706668760263</v>
+        <v>36639.80947592697</v>
       </c>
       <c r="S33" t="n">
-        <v>0.06857496954998341</v>
+        <v>26.29</v>
       </c>
       <c r="T33" t="n">
-        <v>69.27472835820896</v>
+        <v>117.9387526521465</v>
       </c>
       <c r="U33" t="n">
-        <v>24233.35652562676</v>
+        <v>0.03024101597250907</v>
       </c>
       <c r="V33" t="n">
-        <v>13.48</v>
+        <v>31.36739053435111</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>0:00:08</t>
-        </is>
+        <v>13909.54937714419</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.41</v>
       </c>
       <c r="Y33" t="n">
-        <v>13560</v>
+        <v>22</v>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA33" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_5_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_5_I.csv</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3485,7 +3687,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3494,7 +3696,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3506,77 +3708,83 @@
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>25.04</v>
+        <v>20.96</v>
       </c>
       <c r="J34" t="n">
-        <v>2125</v>
+        <v>1975</v>
       </c>
       <c r="K34" t="n">
-        <v>196.2061112448408</v>
+        <v>19</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09343326122632849</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>[290.79436451 237.37862148 224.24166128 213.27032687 154.22974487]</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>[0.13847614 0.11303959 0.10678378 0.10155923 0.07344413]</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>118.0553950127226</v>
-      </c>
-      <c r="P34" t="n">
-        <v>38496.83808982283</v>
+        <v>3925</v>
+      </c>
+      <c r="M34" t="n">
+        <v>191.5232461050253</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.09801398441435451</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[300.60613506 243.70501667 231.47855356 220.28470405 163.36027232]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[0.0769601  0.06239248 0.0592623  0.05639649 0.04182291]</t>
+        </is>
       </c>
       <c r="Q34" t="n">
-        <v>24.75</v>
+        <v>120.4367886005089</v>
       </c>
       <c r="R34" t="n">
-        <v>188.5595396889717</v>
+        <v>36681.15379860607</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08979196731793543</v>
+        <v>28.73</v>
       </c>
       <c r="T34" t="n">
-        <v>92.11672244274806</v>
+        <v>183.4632350710621</v>
       </c>
       <c r="U34" t="n">
-        <v>35554.70000771689</v>
+        <v>0.09388919114811474</v>
       </c>
       <c r="V34" t="n">
-        <v>15.08</v>
+        <v>91.09915175572522</v>
       </c>
       <c r="W34" t="n">
-        <v>24</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>33658.75862273979</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15.31</v>
       </c>
       <c r="Y34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="AA34" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_9_I.csv</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3585,7 +3793,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3597,67 +3805,73 @@
         <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>39.04</v>
       </c>
       <c r="J35" t="n">
-        <v>2259</v>
+        <v>2450.04</v>
       </c>
       <c r="K35" t="n">
-        <v>197.2166783737899</v>
+        <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>0.08769083075757667</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>[242.01699143 219.05123767 200.12035373 175.2354003  177.96180673]</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>[0.10761093 0.09739939 0.08898193 0.07791703 0.0791293 ]</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>144.2601978011352</v>
-      </c>
-      <c r="P35" t="n">
-        <v>38894.4182287909</v>
+        <v>3925</v>
+      </c>
+      <c r="M35" t="n">
+        <v>193.9114607644005</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08042781450203258</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[247.81513304 197.98313165 175.69774789 186.06688204 148.61476018]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[0.06344473 0.05068693 0.0449815  0.04763617 0.03804781]</t>
+        </is>
       </c>
       <c r="Q35" t="n">
-        <v>46.29</v>
+        <v>115.2086736895675</v>
       </c>
       <c r="R35" t="n">
-        <v>205.8355417545152</v>
+        <v>37601.65461578366</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09152313995309701</v>
+        <v>25.18</v>
       </c>
       <c r="T35" t="n">
-        <v>150.7255372382166</v>
+        <v>122.050900940246</v>
       </c>
       <c r="U35" t="n">
-        <v>42368.27024937475</v>
+        <v>0.05062252216517876</v>
       </c>
       <c r="V35" t="n">
-        <v>45.65</v>
+        <v>34.41790534351145</v>
       </c>
       <c r="W35" t="n">
-        <v>189</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>0:03:09</t>
-        </is>
+        <v>14896.42242032574</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.87</v>
       </c>
       <c r="Y35" t="n">
-        <v>188536</v>
+        <v>23</v>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="AA35" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_I.csv</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3667,7 +3881,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3676,7 +3890,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3688,67 +3902,73 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J36" t="n">
-        <v>2259</v>
+        <v>2053.04</v>
       </c>
       <c r="K36" t="n">
-        <v>197.8819285079898</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08837960183474311</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>[242.0363606  219.55182366 200.25015637 175.06538199 177.55476226]</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>[0.10810021 0.09805798 0.08943732 0.07818909 0.07930092]</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>144.6099810075743</v>
-      </c>
-      <c r="P36" t="n">
-        <v>39157.2576300412</v>
+        <v>3918</v>
+      </c>
+      <c r="M36" t="n">
+        <v>197.0391788981134</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.09682324617605224</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[241.37450454 219.73025071 200.7494631  175.12439808 178.66312623]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[0.0617642  0.05622576 0.05136885 0.04481177 0.04571728]</t>
+        </is>
       </c>
       <c r="Q36" t="n">
-        <v>45.61</v>
+        <v>143.3138328959608</v>
       </c>
       <c r="R36" t="n">
-        <v>206.77895648169</v>
+        <v>38824.43802084272</v>
       </c>
       <c r="S36" t="n">
-        <v>0.09235326327900402</v>
+        <v>45.37</v>
       </c>
       <c r="T36" t="n">
-        <v>150.2376823724795</v>
+        <v>207.2976742337513</v>
       </c>
       <c r="U36" t="n">
-        <v>42757.53684365664</v>
+        <v>0.1018641767403841</v>
       </c>
       <c r="V36" t="n">
-        <v>44.64</v>
+        <v>150.3664847622185</v>
       </c>
       <c r="W36" t="n">
-        <v>297</v>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>0:04:57</t>
-        </is>
+        <v>42972.3257427225</v>
+      </c>
+      <c r="X36" t="n">
+        <v>45.37</v>
       </c>
       <c r="Y36" t="n">
+        <v>169</v>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>0:02:49</t>
+        </is>
+      </c>
+      <c r="AA36" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_F.csv</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3758,7 +3978,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3767,7 +3987,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3779,77 +3999,83 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
-        <v>2259</v>
+        <v>2172</v>
       </c>
       <c r="K37" t="n">
-        <v>198.7459036515022</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08876547728963921</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>[241.44215925 220.03887823 200.01477232 175.25489537 177.53027957]</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>[0.10783482 0.09827552 0.08933219 0.07827374 0.07928999]</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>146.1821958715256</v>
-      </c>
-      <c r="P37" t="n">
-        <v>39499.93421825219</v>
+        <v>3918</v>
+      </c>
+      <c r="M37" t="n">
+        <v>197.4128443407944</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.09169198529530627</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[241.59489283 219.36823804 200.35439049 175.24792742 179.3285251 ]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[0.0618206  0.05613312 0.05126776 0.04484338 0.04588754]</t>
+        </is>
       </c>
       <c r="Q37" t="n">
-        <v>47.41</v>
+        <v>145.0894383964234</v>
       </c>
       <c r="R37" t="n">
-        <v>209.03781855701</v>
+        <v>38971.83111072273</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09336213423716391</v>
+        <v>45.92</v>
       </c>
       <c r="T37" t="n">
-        <v>152.2861453355446</v>
+        <v>204.9653190801598</v>
       </c>
       <c r="U37" t="n">
-        <v>43696.80958707344</v>
+        <v>0.09519986952167198</v>
       </c>
       <c r="V37" t="n">
-        <v>46.68</v>
+        <v>149.6919377483171</v>
       </c>
       <c r="W37" t="n">
-        <v>168</v>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>0:02:48</t>
-        </is>
+        <v>42010.7820256317</v>
+      </c>
+      <c r="X37" t="n">
+        <v>44.69</v>
       </c>
       <c r="Y37" t="n">
+        <v>177</v>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0:02:57</t>
+        </is>
+      </c>
+      <c r="AA37" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_5_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_3_B.csv</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3858,7 +4084,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3870,72 +4096,78 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>2394.04</v>
+        <v>3918</v>
       </c>
       <c r="K38" t="n">
-        <v>199.8158017541779</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>0.08463041784729522</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>[314.24201591 204.83388571 244.24395458 144.39700467 158.19921631]</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>[0.13309474 0.08675579 0.10344761 0.06115822 0.06700404]</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>112.4820712437811</v>
-      </c>
-      <c r="P38" t="n">
-        <v>39926.35463066492</v>
+        <v>3918</v>
+      </c>
+      <c r="M38" t="n">
+        <v>208.1162195295351</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.05341792082380265</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[241.50583377 218.56563612 200.17652544 175.25133908 177.45739162]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[0.06179781 0.05592775 0.05122224 0.04484425 0.04540875]</t>
+        </is>
       </c>
       <c r="Q38" t="n">
-        <v>32.04</v>
+        <v>147.8247346811293</v>
       </c>
       <c r="R38" t="n">
-        <v>174.7148110086989</v>
+        <v>43312.36083126567</v>
       </c>
       <c r="S38" t="n">
-        <v>0.07399908981156562</v>
+        <v>46.68</v>
       </c>
       <c r="T38" t="n">
-        <v>78.42234507462685</v>
+        <v>216.9360357190997</v>
       </c>
       <c r="U38" t="n">
-        <v>30525.26518580537</v>
+        <v>0.05568173401414264</v>
       </c>
       <c r="V38" t="n">
-        <v>14.11</v>
+        <v>154.2639052184436</v>
       </c>
       <c r="W38" t="n">
-        <v>8</v>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>0:00:08</t>
-        </is>
+        <v>47061.24359351851</v>
+      </c>
+      <c r="X38" t="n">
+        <v>46.18</v>
       </c>
       <c r="Y38" t="n">
-        <v>13560</v>
+        <v>184</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0:03:04</t>
+        </is>
+      </c>
+      <c r="AA38" t="n">
+        <v>188536</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_5_I.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_7_I.csv</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3949,7 +4181,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3961,60 +4193,66 @@
         <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>20.96</v>
+        <v>28</v>
       </c>
       <c r="J39" t="n">
-        <v>2439</v>
+        <v>3925</v>
       </c>
       <c r="K39" t="n">
-        <v>201.3095275029657</v>
+        <v>19</v>
       </c>
       <c r="L39" t="n">
-        <v>0.08325318336461172</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>[299.86940106 242.88847348 230.50789606 218.01541172 165.92479435]</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>[0.12401342 0.10044849 0.0953284  0.09016204 0.06861954]</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>120.6703458524173</v>
-      </c>
-      <c r="P39" t="n">
-        <v>40525.52586346731</v>
+        <v>3925</v>
+      </c>
+      <c r="M39" t="n">
+        <v>221.1925847362194</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.05675970868263264</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[273.61889269 213.39594098 190.76688806 189.98203283 143.52919706]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[0.07005092 0.05463286 0.04883945 0.04863851 0.03674583]</t>
+        </is>
       </c>
       <c r="Q39" t="n">
-        <v>28.9</v>
+        <v>117.4070864122138</v>
       </c>
       <c r="R39" t="n">
-        <v>200.0747872287419</v>
+        <v>48926.1595422896</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08274254653717136</v>
+        <v>26.61</v>
       </c>
       <c r="T39" t="n">
-        <v>96.46057709923662</v>
+        <v>176.5565007525349</v>
       </c>
       <c r="U39" t="n">
-        <v>40029.92048462632</v>
+        <v>0.04530574820439694</v>
       </c>
       <c r="V39" t="n">
-        <v>16.6</v>
+        <v>59.02561099236644</v>
       </c>
       <c r="W39" t="n">
+        <v>31172.19795797985</v>
+      </c>
+      <c r="X39" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y39" t="n">
         <v>23</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>0:00:23</t>
         </is>
       </c>
-      <c r="Y39" t="n">
+      <c r="AA39" t="n">
         <v>26360</v>
       </c>
     </row>
@@ -4052,60 +4290,66 @@
         <v>5</v>
       </c>
       <c r="I40" t="n">
+        <v>19</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2282</v>
+      </c>
+      <c r="K40" t="n">
+        <v>19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3925</v>
+      </c>
+      <c r="M40" t="n">
+        <v>221.3865223394651</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09782877699490283</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[293.41499821 235.26555944 220.11980506 210.20554895 151.20780023]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[0.07511905 0.06023184 0.05635428 0.05381606 0.03871167]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>128.9334900763359</v>
+      </c>
+      <c r="R40" t="n">
+        <v>49011.99227356249</v>
+      </c>
+      <c r="S40" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>219.1306270927942</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.09683191652355023</v>
+      </c>
+      <c r="V40" t="n">
+        <v>107.2275261068702</v>
+      </c>
+      <c r="W40" t="n">
+        <v>48018.23173008123</v>
+      </c>
+      <c r="X40" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="Y40" t="n">
         <v>22</v>
       </c>
-      <c r="J40" t="n">
-        <v>2200</v>
-      </c>
-      <c r="K40" t="n">
-        <v>214.1310269142998</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.09831543935459126</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>[295.24923264 237.54699934 221.74785714 211.37239177 153.72410601]</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>[0.13555979 0.10906657 0.10181261 0.09704885 0.0705804 ]</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>123.4569355725191</v>
-      </c>
-      <c r="P40" t="n">
-        <v>45852.09668737258</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>26.04</v>
-      </c>
-      <c r="R40" t="n">
-        <v>214.4219559501524</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.09844901558776512</v>
-      </c>
-      <c r="T40" t="n">
-        <v>99.818932519084</v>
-      </c>
-      <c r="U40" t="n">
-        <v>45976.77519348911</v>
-      </c>
-      <c r="V40" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="W40" t="n">
-        <v>25</v>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
-      </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA40" t="n">
         <v>26360</v>
       </c>
     </row>
@@ -4143,67 +4387,73 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J41" t="n">
+        <v>2364.96</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
         <v>3918</v>
       </c>
-      <c r="K41" t="n">
-        <v>229.072402090725</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.0587515778637407</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>[279.74646949 252.71031265 236.08524063 207.74527695 222.69447807]</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>[0.07174826 0.06481414 0.0605502  0.05328168 0.05711579]</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>167.075502375701</v>
-      </c>
-      <c r="P41" t="n">
-        <v>52474.16539961479</v>
+      <c r="M41" t="n">
+        <v>232.0240744573227</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09903031825439727</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[279.66189272 253.06643273 236.12719407 207.28020044 224.00877493]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[0.07156139 0.064756   0.06042149 0.05303997 0.05732057]</t>
+        </is>
       </c>
       <c r="Q41" t="n">
-        <v>57.66</v>
+        <v>171.4642998261568</v>
       </c>
       <c r="R41" t="n">
-        <v>255.3552091612482</v>
+        <v>53835.1711277772</v>
       </c>
       <c r="S41" t="n">
-        <v>0.06549248760226935</v>
+        <v>58.57</v>
       </c>
       <c r="T41" t="n">
-        <v>185.4582522968226</v>
+        <v>259.9973013803887</v>
       </c>
       <c r="U41" t="n">
-        <v>65206.2828457848</v>
+        <v>0.1109695860707774</v>
       </c>
       <c r="V41" t="n">
-        <v>60.8</v>
+        <v>192.4586642164592</v>
       </c>
       <c r="W41" t="n">
-        <v>198</v>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>0:03:18</t>
-        </is>
+        <v>67598.59672508469</v>
+      </c>
+      <c r="X41" t="n">
+        <v>62.46</v>
       </c>
       <c r="Y41" t="n">
+        <v>179</v>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0:02:59</t>
+        </is>
+      </c>
+      <c r="AA41" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_1_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_1_B.csv</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4213,7 +4463,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4234,67 +4484,73 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" t="n">
-        <v>2259</v>
+        <v>2364.96</v>
       </c>
       <c r="K42" t="n">
-        <v>233.6403783030843</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1042571969223937</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>[279.53078219 252.7643104  236.20134371 207.18928999 223.11356531]</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>[0.12473484 0.11279086 0.10539997 0.09245394 0.09955982]</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>172.224600768696</v>
-      </c>
-      <c r="P42" t="n">
-        <v>54587.82637360835</v>
+        <v>3918</v>
+      </c>
+      <c r="M42" t="n">
+        <v>233.8535928737398</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.09959862726525999</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[279.90682905 252.89604872 236.2930118  207.43479743 223.07085046]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[0.07162406 0.0647124  0.06046392 0.05307953 0.05708057]</t>
+        </is>
       </c>
       <c r="Q42" t="n">
-        <v>60.63</v>
+        <v>172.4206394235707</v>
       </c>
       <c r="R42" t="n">
-        <v>258.4205462983068</v>
+        <v>54687.50289995687</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1153148354744787</v>
+        <v>59.02</v>
       </c>
       <c r="T42" t="n">
-        <v>189.6497168682183</v>
+        <v>255.8018944693793</v>
       </c>
       <c r="U42" t="n">
-        <v>66781.17874911535</v>
+        <v>0.1089464447730708</v>
       </c>
       <c r="V42" t="n">
-        <v>62.87</v>
+        <v>189.3590653103465</v>
       </c>
       <c r="W42" t="n">
-        <v>179</v>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>0:02:59</t>
-        </is>
+        <v>65434.60921412345</v>
+      </c>
+      <c r="X42" t="n">
+        <v>61.95</v>
       </c>
       <c r="Y42" t="n">
+        <v>209</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>0:03:29</t>
+        </is>
+      </c>
+      <c r="AA42" t="n">
         <v>188536</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_LAVORI_P_1_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_LAVORI_P_1_F.csv</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4304,7 +4560,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4325,60 +4581,66 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J43" t="n">
         <v>3918</v>
       </c>
       <c r="K43" t="n">
-        <v>245.9041383869653</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06331208506358531</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>[279.87413549 254.42390057 236.46517044 207.83014127 223.57752032]</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>[0.07205822 0.06550564 0.06088187 0.05350931 0.05756373]</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>175.6677592126017</v>
-      </c>
-      <c r="P43" t="n">
-        <v>60468.84527583578</v>
+        <v>3918</v>
+      </c>
+      <c r="M43" t="n">
+        <v>246.3565634322989</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06303903874930884</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[280.74892573 252.79283249 235.72613326 207.57032235 222.36136776]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[0.07183954 0.06468599 0.06031887 0.05311421 0.05689902]</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>57.17</v>
+        <v>178.5616710286967</v>
       </c>
       <c r="R43" t="n">
-        <v>267.5459080829524</v>
+        <v>60691.55634617234</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06888411639622873</v>
+        <v>60.36</v>
       </c>
       <c r="T43" t="n">
-        <v>193.5072269718579</v>
+        <v>268.2674580384212</v>
       </c>
       <c r="U43" t="n">
-        <v>71580.81293193161</v>
+        <v>0.0686457159770781</v>
       </c>
       <c r="V43" t="n">
-        <v>59.94</v>
+        <v>195.6670775032419</v>
       </c>
       <c r="W43" t="n">
-        <v>199</v>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>0:03:19</t>
-        </is>
+        <v>71967.42904239606</v>
+      </c>
+      <c r="X43" t="n">
+        <v>62.97</v>
       </c>
       <c r="Y43" t="n">
+        <v>193</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>0:03:13</t>
+        </is>
+      </c>
+      <c r="AA43" t="n">
         <v>188536</v>
       </c>
     </row>
@@ -4416,67 +4678,73 @@
         <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>39.96</v>
+        <v>11.04</v>
       </c>
       <c r="J44" t="n">
-        <v>1849</v>
+        <v>2512</v>
       </c>
       <c r="K44" t="n">
-        <v>308.2223199265934</v>
+        <v>11.04</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1703789412763639</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>[451.86826508 403.89818126 399.03937415 280.18220031 306.61551614]</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>[0.24978346 0.22326658 0.22058074 0.15487894 0.16949073]</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>236.4872615084068</v>
-      </c>
-      <c r="P44" t="n">
-        <v>95000.99850093128</v>
+        <v>2512</v>
+      </c>
+      <c r="M44" t="n">
+        <v>332.8986151349797</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1331083324543294</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[451.79736401 411.40282279 421.97971533 293.05193586 321.81435487]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[0.18064958 0.16449796 0.16872709 0.11717578 0.12867633]</t>
+        </is>
       </c>
       <c r="Q44" t="n">
-        <v>74.58</v>
+        <v>251.9727193723159</v>
       </c>
       <c r="R44" t="n">
-        <v>315.8876085755772</v>
+        <v>110821.4879587873</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1746161547426134</v>
+        <v>86.55</v>
       </c>
       <c r="T44" t="n">
-        <v>233.0606470779436</v>
+        <v>355.3229814876389</v>
       </c>
       <c r="U44" t="n">
-        <v>99784.9812515971</v>
+        <v>0.1420746359348566</v>
       </c>
       <c r="V44" t="n">
-        <v>70.13</v>
+        <v>260.2489459047619</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>126254.421173265</v>
+      </c>
+      <c r="X44" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="Y44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA44" t="n">
         <v>13560</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_3_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_3_B.csv</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4495,7 +4763,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4507,61 +4775,67 @@
         <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J45" t="n">
-        <v>2406.04</v>
+        <v>2394.04</v>
       </c>
       <c r="K45" t="n">
-        <v>337.659157418756</v>
+        <v>11.04</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1418116274479874</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>[436.32819149 382.38404979 373.4842543  347.51118729 355.13006485]</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>[0.1832511  0.16059539 0.15685761 0.14594933 0.14914914]</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>266.6650188503559</v>
-      </c>
-      <c r="P45" t="n">
-        <v>114013.7065887443</v>
+        <v>2512</v>
+      </c>
+      <c r="M45" t="n">
+        <v>333.1628919926467</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1412880578754587</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[448.16190098 406.9417284  410.87374821 286.20606623 310.38912076]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[0.17919595 0.16271421 0.16428641 0.11443848 0.12410799]</t>
+        </is>
       </c>
       <c r="Q45" t="n">
-        <v>70.56999999999999</v>
+        <v>243.4681924296088</v>
       </c>
       <c r="R45" t="n">
-        <v>357.5779164166153</v>
+        <v>110997.512600904</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1501771983740783</v>
+        <v>64.55</v>
       </c>
       <c r="T45" t="n">
-        <v>273.092494871683</v>
+        <v>347.7463410760383</v>
       </c>
       <c r="U45" t="n">
-        <v>127861.9663088479</v>
+        <v>0.1474726217859062</v>
       </c>
       <c r="V45" t="n">
-        <v>68.40000000000001</v>
+        <v>243.5026478445866</v>
       </c>
       <c r="W45" t="n">
-        <v>25</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
+        <v>120927.5177317724</v>
+      </c>
+      <c r="X45" t="n">
+        <v>60.38</v>
       </c>
       <c r="Y45" t="n">
-        <v>26360</v>
+        <v>10</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="AA45" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="46">
@@ -4598,77 +4872,83 @@
         <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J46" t="n">
-        <v>2274.04</v>
+        <v>2439</v>
       </c>
       <c r="K46" t="n">
-        <v>338.5617810002789</v>
+        <v>19</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1503355983909162</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>[439.51891061 383.23885546 377.40103222 351.65609181 351.92563705]</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>[0.19516479 0.17017409 0.16758185 0.15615002 0.15626971]</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>260.1658180129025</v>
-      </c>
-      <c r="P46" t="n">
-        <v>114624.0795540808</v>
+        <v>3925</v>
+      </c>
+      <c r="M46" t="n">
+        <v>346.010264056401</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.1442911860118436</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[436.82445237 378.43115997 371.38721914 345.42250373 353.65048291]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[0.11183422 0.09688458 0.09508121 0.08843382 0.09054032]</t>
+        </is>
       </c>
       <c r="Q46" t="n">
-        <v>70.16</v>
+        <v>268.1679637907813</v>
       </c>
       <c r="R46" t="n">
-        <v>351.764932682767</v>
+        <v>119723.1028323803</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1561983502436755</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="T46" t="n">
-        <v>266.6582737491822</v>
+        <v>359.4078010516708</v>
       </c>
       <c r="U46" t="n">
-        <v>123738.5678653116</v>
+        <v>0.1498781488956092</v>
       </c>
       <c r="V46" t="n">
-        <v>69.09999999999999</v>
+        <v>271.2266884827336</v>
       </c>
       <c r="W46" t="n">
-        <v>25</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
+        <v>129173.9674567974</v>
+      </c>
+      <c r="X46" t="n">
+        <v>60.81</v>
       </c>
       <c r="Y46" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0:00:24</t>
+        </is>
+      </c>
+      <c r="AA46" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_3_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_1_F.csv</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4677,7 +4957,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4689,60 +4969,66 @@
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>16.04</v>
+        <v>36</v>
       </c>
       <c r="J47" t="n">
-        <v>2308.04</v>
+        <v>1621.04</v>
       </c>
       <c r="K47" t="n">
-        <v>340.5203651904553</v>
+        <v>11.04</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1485690947602335</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>[450.29148976 404.63967232 408.48424246 283.23439784 314.40620382]</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>[0.19646226 0.17654436 0.17822175 0.12357522 0.13717548]</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>253.9275275255458</v>
-      </c>
-      <c r="P47" t="n">
-        <v>115954.119109441</v>
+        <v>2512</v>
+      </c>
+      <c r="M47" t="n">
+        <v>350.6655107819099</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.221234486689238</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[471.46385022 429.88462975 420.54875175 301.79624887 334.30572576]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[0.18851315 0.17188785 0.16815493 0.12067216 0.13367096]</t>
+        </is>
       </c>
       <c r="Q47" t="n">
-        <v>91.45</v>
+        <v>275.2536594659937</v>
       </c>
       <c r="R47" t="n">
-        <v>351.434675948301</v>
+        <v>122966.3004519378</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1533310104486479</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="T47" t="n">
-        <v>248.360033840796</v>
+        <v>396.8797051947068</v>
       </c>
       <c r="U47" t="n">
-        <v>123506.3314588874</v>
+        <v>0.2503909713286143</v>
       </c>
       <c r="V47" t="n">
-        <v>82.93000000000001</v>
+        <v>295.2201376662804</v>
       </c>
       <c r="W47" t="n">
-        <v>10</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>157513.5003954374</v>
+      </c>
+      <c r="X47" t="n">
+        <v>76.02</v>
       </c>
       <c r="Y47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>0:00:12</t>
+        </is>
+      </c>
+      <c r="AA47" t="n">
         <v>13560</v>
       </c>
     </row>
@@ -4780,77 +5066,83 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2199</v>
+      </c>
+      <c r="K48" t="n">
         <v>19</v>
       </c>
-      <c r="J48" t="n">
-        <v>2450.04</v>
-      </c>
-      <c r="K48" t="n">
-        <v>345.6078265996317</v>
-      </c>
       <c r="L48" t="n">
-        <v>0.1421645989369289</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>[442.6415178  385.0383042  375.92160048 344.69875951 349.14362088]</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>[0.18207908 0.15838419 0.15463407 0.14179066 0.14361904]</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>269.83947036401</v>
-      </c>
-      <c r="P48" t="n">
-        <v>119444.7698069211</v>
+        <v>3925</v>
+      </c>
+      <c r="M48" t="n">
+        <v>354.8391297809229</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1632194709203877</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[441.45873204 387.23007597 373.81272595 352.63140484 354.11200184]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[0.11302067 0.09913724 0.09570218 0.09027942 0.09065847]</t>
+        </is>
       </c>
       <c r="Q48" t="n">
-        <v>71.86</v>
+        <v>274.2579376058293</v>
       </c>
       <c r="R48" t="n">
-        <v>352.8068293673247</v>
+        <v>125910.8080236826</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1451258841349072</v>
+        <v>65.75</v>
       </c>
       <c r="T48" t="n">
-        <v>270.4771053624137</v>
+        <v>366.4887585805027</v>
       </c>
       <c r="U48" t="n">
-        <v>124472.6588482246</v>
+        <v>0.1685780858235983</v>
       </c>
       <c r="V48" t="n">
-        <v>67.23</v>
+        <v>279.4972001546104</v>
       </c>
       <c r="W48" t="n">
-        <v>24</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0:00:24</t>
-        </is>
+        <v>134314.010165878</v>
+      </c>
+      <c r="X48" t="n">
+        <v>63.54</v>
       </c>
       <c r="Y48" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>0:00:25</t>
+        </is>
+      </c>
+      <c r="AA48" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_3_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_1_B.csv</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -4859,7 +5151,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4871,77 +5163,83 @@
         <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J49" t="n">
-        <v>2512</v>
+        <v>2282</v>
       </c>
       <c r="K49" t="n">
-        <v>346.4214306020539</v>
+        <v>19</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1394050022543477</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>[454.31562873 410.8072146  423.63022094 292.69132221 318.20547909]</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>[0.18282319 0.16531477 0.17047494 0.11778323 0.12805049]</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>249.181731783076</v>
-      </c>
-      <c r="P49" t="n">
-        <v>120007.8075803737</v>
+        <v>3925</v>
+      </c>
+      <c r="M49" t="n">
+        <v>364.3795260292002</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1610161405343351</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[480.94028431 415.39112429 400.76324754 377.45929985 408.18191198]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[0.12312859 0.10634693 0.10260196 0.09663577 0.10450126]</t>
+        </is>
       </c>
       <c r="Q49" t="n">
-        <v>87.93000000000001</v>
+        <v>291.6022791837393</v>
       </c>
       <c r="R49" t="n">
-        <v>360.2068714169411</v>
+        <v>132772.4389892646</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1449524633468576</v>
+        <v>103.11</v>
       </c>
       <c r="T49" t="n">
-        <v>255.5125777370291</v>
+        <v>394.6276258853851</v>
       </c>
       <c r="U49" t="n">
-        <v>129748.9902159807</v>
+        <v>0.1743825125432546</v>
       </c>
       <c r="V49" t="n">
-        <v>85.67</v>
+        <v>307.7858332642807</v>
       </c>
       <c r="W49" t="n">
-        <v>12</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0:00:12</t>
-        </is>
+        <v>155730.9631119354</v>
+      </c>
+      <c r="X49" t="n">
+        <v>101.04</v>
       </c>
       <c r="Y49" t="n">
-        <v>13560</v>
+        <v>22</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0:00:22</t>
+        </is>
+      </c>
+      <c r="AA49" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_1_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_3_B.csv</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4950,7 +5248,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -4962,61 +5260,67 @@
         <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J50" t="n">
-        <v>2316.04</v>
+        <v>3925</v>
       </c>
       <c r="K50" t="n">
-        <v>350.608536359318</v>
+        <v>19</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1531683746720538</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>[463.4563375  424.47542918 409.69940215 300.18769638 325.00176732]</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>[0.20246756 0.18543819 0.17898307 0.13114131 0.14198169]</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>275.8790750045889</v>
-      </c>
-      <c r="P50" t="n">
-        <v>122926.3457680232</v>
+        <v>3925</v>
+      </c>
+      <c r="M50" t="n">
+        <v>365.9941740686737</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.09377252730429765</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[438.3571253  382.07765892 371.42977815 344.66097465 353.64868842]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[0.11222661 0.09781814 0.09509211 0.08823886 0.09053986]</t>
+        </is>
       </c>
       <c r="Q50" t="n">
-        <v>97.43000000000001</v>
+        <v>273.1741831374503</v>
       </c>
       <c r="R50" t="n">
-        <v>380.3422231000908</v>
+        <v>133951.7354522106</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1661579627704587</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="T50" t="n">
-        <v>283.033420229214</v>
+        <v>376.2303045752932</v>
       </c>
       <c r="U50" t="n">
-        <v>144660.2066727193</v>
+        <v>0.09639515874334954</v>
       </c>
       <c r="V50" t="n">
-        <v>84.03</v>
+        <v>274.2642044173028</v>
       </c>
       <c r="W50" t="n">
-        <v>9</v>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0:00:09</t>
-        </is>
+        <v>141549.2420808179</v>
+      </c>
+      <c r="X50" t="n">
+        <v>64.70999999999999</v>
       </c>
       <c r="Y50" t="n">
-        <v>13560</v>
+        <v>24</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>0:00:24</t>
+        </is>
+      </c>
+      <c r="AA50" t="n">
+        <v>26360</v>
       </c>
     </row>
     <row r="51">
@@ -5053,72 +5357,78 @@
         <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J51" t="n">
-        <v>2316.04</v>
+        <v>2147</v>
       </c>
       <c r="K51" t="n">
-        <v>351.3765134589535</v>
+        <v>11.04</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1537053216299599</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>[465.27133913 424.95704708 412.99866549 301.91565321 323.88400717]</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>[0.20352721 0.18589222 0.18066117 0.13206928 0.14167906]</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>270.7248734415751</v>
-      </c>
-      <c r="P51" t="n">
-        <v>123465.4542105701</v>
+        <v>2512</v>
+      </c>
+      <c r="M51" t="n">
+        <v>372.0990949981096</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1755184410368442</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[465.34968935 422.31788287 416.36456275 303.4905691  324.18046462]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[0.18606843 0.16886231 0.1664819  0.12134963 0.12962241]</t>
+        </is>
       </c>
       <c r="Q51" t="n">
-        <v>80.45999999999999</v>
+        <v>291.6767114186399</v>
       </c>
       <c r="R51" t="n">
-        <v>382.1325370103535</v>
+        <v>138457.7364984122</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1671591647610512</v>
+        <v>88.11</v>
       </c>
       <c r="T51" t="n">
-        <v>281.9941114622409</v>
+        <v>395.2131910108392</v>
       </c>
       <c r="U51" t="n">
-        <v>146025.2758419692</v>
+        <v>0.1864213165145468</v>
       </c>
       <c r="V51" t="n">
-        <v>73.78</v>
+        <v>303.0014847884865</v>
       </c>
       <c r="W51" t="n">
-        <v>8</v>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0:00:08</t>
-        </is>
+        <v>156193.4663489701</v>
+      </c>
+      <c r="X51" t="n">
+        <v>80.04000000000001</v>
       </c>
       <c r="Y51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>0:00:09</t>
+        </is>
+      </c>
+      <c r="AA51" t="n">
         <v>13560</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_1_F.csv</t>
+          <t>log_2016-2022_clean_5_eventi_FORNITURE_P_3_F.csv</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5132,7 +5442,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -5144,61 +5454,67 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>20.96</v>
+        <v>16.04</v>
       </c>
       <c r="J52" t="n">
-        <v>2282</v>
+        <v>2380.04</v>
       </c>
       <c r="K52" t="n">
-        <v>364.1347535011611</v>
+        <v>11.04</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1610474620091467</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>[481.1592034  414.32057578 401.00022454 377.39740616 411.15935323]</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>[0.21280437 0.18324336 0.17735211 0.16691319 0.18184524]</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>293.2462446723048</v>
-      </c>
-      <c r="P52" t="n">
-        <v>132594.1187073513</v>
+        <v>2512</v>
+      </c>
+      <c r="M52" t="n">
+        <v>373.6655294997766</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1580649447968598</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[452.77086181 409.58192201 413.20749878 287.8280517  319.47911654]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[0.18103883 0.16376988 0.16521956 0.11508703 0.12774259]</t>
+        </is>
       </c>
       <c r="Q52" t="n">
-        <v>98.34</v>
+        <v>271.7193082876156</v>
       </c>
       <c r="R52" t="n">
-        <v>395.8445452745107</v>
+        <v>139625.9279363484</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1750718896058941</v>
+        <v>86.61</v>
       </c>
       <c r="T52" t="n">
-        <v>303.6379681074943</v>
+        <v>389.7684225373701</v>
       </c>
       <c r="U52" t="n">
-        <v>156692.9040235842</v>
+        <v>0.1648766592797674</v>
       </c>
       <c r="V52" t="n">
-        <v>95.94</v>
+        <v>274.2203983681592</v>
       </c>
       <c r="W52" t="n">
-        <v>25</v>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
+        <v>151919.4232072699</v>
+      </c>
+      <c r="X52" t="n">
+        <v>82.81999999999999</v>
       </c>
       <c r="Y52" t="n">
-        <v>26360</v>
+        <v>10</v>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>0:00:10</t>
+        </is>
+      </c>
+      <c r="AA52" t="n">
+        <v>13560</v>
       </c>
     </row>
     <row r="53">
@@ -5235,60 +5551,66 @@
         <v>5</v>
       </c>
       <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2316.04</v>
+      </c>
+      <c r="K53" t="n">
         <v>11.04</v>
       </c>
-      <c r="J53" t="n">
-        <v>2308.04</v>
-      </c>
-      <c r="K53" t="n">
-        <v>375.4102515079085</v>
-      </c>
       <c r="L53" t="n">
-        <v>0.1634350246007438</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>[465.49401314 423.10620946 410.50971303 298.82532862 323.51640863]</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>[0.20265303 0.18419948 0.17871559 0.13009374 0.14084302]</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>283.0187070666647</v>
-      </c>
-      <c r="P53" t="n">
-        <v>140932.8569372311</v>
+        <v>2512</v>
+      </c>
+      <c r="M53" t="n">
+        <v>376.6615761073677</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1657812257299025</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[465.97825518 426.02762069 413.06849532 301.38925662 323.67552545]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[0.18631976 0.17034564 0.16516398 0.12050943 0.12942051]</t>
+        </is>
       </c>
       <c r="Q53" t="n">
-        <v>126.1</v>
+        <v>289.5521732700799</v>
       </c>
       <c r="R53" t="n">
-        <v>386.7912323527697</v>
+        <v>141873.9429156863</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1683897398140051</v>
+        <v>84.97</v>
       </c>
       <c r="T53" t="n">
-        <v>276.3469427018175</v>
+        <v>399.1759617869723</v>
       </c>
       <c r="U53" t="n">
-        <v>149607.4574249743</v>
+        <v>0.1756905520091954</v>
       </c>
       <c r="V53" t="n">
-        <v>117.3</v>
+        <v>298.1892221409296</v>
       </c>
       <c r="W53" t="n">
-        <v>10</v>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0:00:10</t>
-        </is>
+        <v>159341.4484685544</v>
+      </c>
+      <c r="X53" t="n">
+        <v>77.45999999999999</v>
       </c>
       <c r="Y53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>0:00:11</t>
+        </is>
+      </c>
+      <c r="AA53" t="n">
         <v>13560</v>
       </c>
     </row>
@@ -5326,67 +5648,73 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>25.04</v>
+        <v>19</v>
       </c>
       <c r="J54" t="n">
-        <v>2282</v>
+        <v>3925</v>
       </c>
       <c r="K54" t="n">
-        <v>384.9972026936823</v>
+        <v>19</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1705822002577282</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>[482.74842666 417.93245109 401.46594637 377.0348533  409.34826628]</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>[0.21389321 0.18517495 0.17787907 0.16705429 0.18137152]</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>306.540885769205</v>
-      </c>
-      <c r="P54" t="n">
-        <v>148222.8460819602</v>
+        <v>3925</v>
+      </c>
+      <c r="M54" t="n">
+        <v>382.5658812914127</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.09794313397117579</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[479.52202357 417.29400408 401.53499799 376.61742513 409.79923935]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[0.1227655  0.1068341  0.10279954 0.09642023 0.10491532]</t>
+        </is>
       </c>
       <c r="Q54" t="n">
-        <v>88.3</v>
+        <v>290.3645295327025</v>
       </c>
       <c r="R54" t="n">
-        <v>411.65757286985</v>
+        <v>146356.6535282753</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1823947136279996</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>318.750070125243</v>
+        <v>407.5059347585285</v>
       </c>
       <c r="U54" t="n">
-        <v>169461.9573010959</v>
+        <v>0.1043281963027467</v>
       </c>
       <c r="V54" t="n">
-        <v>84.84999999999999</v>
+        <v>303.2215122512094</v>
       </c>
       <c r="W54" t="n">
-        <v>25</v>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
+        <v>166061.0868634221</v>
+      </c>
+      <c r="X54" t="n">
+        <v>92.31999999999999</v>
       </c>
       <c r="Y54" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>0:00:26</t>
+        </is>
+      </c>
+      <c r="AA54" t="n">
         <v>26360</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_1_B.csv</t>
+          <t>log_2016-2022_clean_5_eventi_SERVIZI_P_1_F.csv</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5396,7 +5724,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5417,60 +5745,66 @@
         <v>5</v>
       </c>
       <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2282</v>
+      </c>
+      <c r="K55" t="n">
         <v>19</v>
       </c>
-      <c r="J55" t="n">
-        <v>2450.04</v>
-      </c>
-      <c r="K55" t="n">
-        <v>387.4465729393374</v>
-      </c>
       <c r="L55" t="n">
-        <v>0.1593748243300552</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>[480.93854874 417.00424937 400.46457089 376.57060783 410.95395374]</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>[0.19783243 0.17153327 0.16472973 0.15490103 0.16904451]</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>306.5600877015857</v>
-      </c>
-      <c r="P55" t="n">
-        <v>150114.8468824373</v>
+        <v>3925</v>
+      </c>
+      <c r="M55" t="n">
+        <v>393.6296335191669</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.1741724042120207</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[480.18251292 414.43002707 401.62673793 375.88679996 412.75613693]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[0.12293459 0.10610088 0.10282303 0.09623318 0.10567233]</t>
+        </is>
       </c>
       <c r="Q55" t="n">
-        <v>90.98999999999999</v>
+        <v>314.9774315125638</v>
       </c>
       <c r="R55" t="n">
-        <v>413.1432951714721</v>
+        <v>154944.2883844336</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1699450832448138</v>
+        <v>82.66</v>
       </c>
       <c r="T55" t="n">
-        <v>318.7572556077187</v>
+        <v>416.1962622840587</v>
       </c>
       <c r="U55" t="n">
-        <v>170687.3823451421</v>
+        <v>0.184157638178787</v>
       </c>
       <c r="V55" t="n">
-        <v>88.83</v>
+        <v>317.350246787916</v>
       </c>
       <c r="W55" t="n">
-        <v>25</v>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0:00:25</t>
-        </is>
+        <v>173219.3287392209</v>
+      </c>
+      <c r="X55" t="n">
+        <v>76.34</v>
       </c>
       <c r="Y55" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="AA55" t="n">
         <v>26360</v>
       </c>
     </row>
